--- a/09_Sales Data Analysis/Sales_Dataset.xlsx
+++ b/09_Sales Data Analysis/Sales_Dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHIT GREWAL\Desktop\Data Science Lovers\Videos\125. Project 9 - Sales Data Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhusan\Desktop\Data-Analysis-Projects\09_Sales Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9411B3EE-A4CF-4773-A023-1F1A4DC4F2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D1FC2354-1431-294E-9D05-A71CF1B59C9B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Raw!$B$2:$J$256</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="41">
   <si>
     <t>Order ID</t>
   </si>
@@ -146,11 +145,17 @@
   <si>
     <t>Tom Jackson</t>
   </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -255,11 +260,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink 2 2" xfId="2" xr:uid="{F249171E-1D60-42F4-A03F-480C913218A3}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{0CD8B2A8-DB45-4C19-8BF1-7AC1BB4A4279}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -267,62 +272,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7180,27 +7129,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF77E48-6FD4-8644-A782-E6B1D9E27C39}">
-  <dimension ref="B2:J256"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="M252" sqref="M252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" style="3"/>
-    <col min="3" max="3" width="9.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.69921875" style="3"/>
+    <col min="3" max="3" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" style="3"/>
+    <col min="5" max="6" width="10.69921875" style="3"/>
     <col min="7" max="7" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.6640625" style="3"/>
+    <col min="8" max="8" width="15.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7228,8 +7177,14 @@
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>10452</v>
       </c>
@@ -7257,8 +7212,16 @@
       <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="3">
+        <f>E3*F3</f>
+        <v>1999.9999999999998</v>
+      </c>
+      <c r="L3" s="3">
+        <f>MONTH(C3)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>10453</v>
       </c>
@@ -7286,8 +7249,16 @@
       <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="3">
+        <f>E4*F4</f>
+        <v>2200</v>
+      </c>
+      <c r="L4" s="3">
+        <f>MONTH(C4)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>10454</v>
       </c>
@@ -7315,8 +7286,16 @@
       <c r="J5" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="3">
+        <f t="shared" ref="K5:K68" si="0">E5*F5</f>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" ref="L5:L68" si="1">MONTH(C5)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>10455</v>
       </c>
@@ -7344,8 +7323,16 @@
       <c r="J6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>7400</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>10456</v>
       </c>
@@ -7373,8 +7360,16 @@
       <c r="J7" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>10457</v>
       </c>
@@ -7402,8 +7397,16 @@
       <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>1999.9999999999998</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>10459</v>
       </c>
@@ -7431,8 +7434,16 @@
       <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>10460</v>
       </c>
@@ -7460,8 +7471,16 @@
       <c r="J10" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>10461</v>
       </c>
@@ -7489,8 +7508,16 @@
       <c r="J11" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>10462</v>
       </c>
@@ -7518,8 +7545,16 @@
       <c r="J12" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>1999.9999999999998</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>10463</v>
       </c>
@@ -7547,8 +7582,16 @@
       <c r="J13" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10464</v>
       </c>
@@ -7576,8 +7619,16 @@
       <c r="J14" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>10465</v>
       </c>
@@ -7605,8 +7656,16 @@
       <c r="J15" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10466</v>
       </c>
@@ -7634,8 +7693,16 @@
       <c r="J16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>10467</v>
       </c>
@@ -7663,8 +7730,16 @@
       <c r="J17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>1999.9999999999998</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>10468</v>
       </c>
@@ -7692,8 +7767,16 @@
       <c r="J18" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>10470</v>
       </c>
@@ -7721,8 +7804,16 @@
       <c r="J19" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="3">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>10471</v>
       </c>
@@ -7750,8 +7841,16 @@
       <c r="J20" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>10472</v>
       </c>
@@ -7779,8 +7878,16 @@
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="3">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>10473</v>
       </c>
@@ -7808,8 +7915,16 @@
       <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>10474</v>
       </c>
@@ -7837,8 +7952,16 @@
       <c r="J23" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>10475</v>
       </c>
@@ -7866,8 +7989,16 @@
       <c r="J24" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K24" s="3">
+        <f t="shared" si="0"/>
+        <v>6800</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>10476</v>
       </c>
@@ -7895,8 +8026,16 @@
       <c r="J25" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>10477</v>
       </c>
@@ -7924,8 +8063,16 @@
       <c r="J26" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K26" s="3">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>10478</v>
       </c>
@@ -7953,8 +8100,16 @@
       <c r="J27" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>10479</v>
       </c>
@@ -7982,8 +8137,16 @@
       <c r="J28" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="3">
+        <f t="shared" si="0"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <v>10480</v>
       </c>
@@ -8011,8 +8174,16 @@
       <c r="J29" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="3">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <v>10481</v>
       </c>
@@ -8040,8 +8211,16 @@
       <c r="J30" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K30" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>10482</v>
       </c>
@@ -8069,8 +8248,16 @@
       <c r="J31" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K31" s="3">
+        <f t="shared" si="0"/>
+        <v>16074.498567335244</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>10486</v>
       </c>
@@ -8098,8 +8285,16 @@
       <c r="J32" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K32" s="3">
+        <f t="shared" si="0"/>
+        <v>5839.1959798994985</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>10487</v>
       </c>
@@ -8127,8 +8322,16 @@
       <c r="J33" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K33" s="3">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <v>10488</v>
       </c>
@@ -8156,8 +8359,16 @@
       <c r="J34" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K34" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>10489</v>
       </c>
@@ -8185,8 +8396,16 @@
       <c r="J35" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K35" s="3">
+        <f t="shared" si="0"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <v>10490</v>
       </c>
@@ -8214,8 +8433,16 @@
       <c r="J36" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K36" s="3">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>10491</v>
       </c>
@@ -8243,8 +8470,16 @@
       <c r="J37" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K37" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <v>10492</v>
       </c>
@@ -8272,8 +8507,16 @@
       <c r="J38" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K38" s="3">
+        <f t="shared" si="0"/>
+        <v>1999.9999999999998</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
         <v>10493</v>
       </c>
@@ -8301,8 +8544,16 @@
       <c r="J39" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K39" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <v>10494</v>
       </c>
@@ -8330,8 +8581,16 @@
       <c r="J40" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K40" s="3">
+        <f t="shared" si="0"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <v>10495</v>
       </c>
@@ -8359,8 +8618,16 @@
       <c r="J41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K41" s="3">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <v>10496</v>
       </c>
@@ -8388,8 +8655,16 @@
       <c r="J42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K42" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>10497</v>
       </c>
@@ -8417,8 +8692,16 @@
       <c r="J43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K43" s="3">
+        <f t="shared" si="0"/>
+        <v>1999.9999999999998</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
         <v>10498</v>
       </c>
@@ -8446,8 +8729,16 @@
       <c r="J44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K44" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
         <v>10499</v>
       </c>
@@ -8475,8 +8766,16 @@
       <c r="J45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K45" s="3">
+        <f t="shared" si="0"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
         <v>10500</v>
       </c>
@@ -8504,8 +8803,16 @@
       <c r="J46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K46" s="3">
+        <f t="shared" si="0"/>
+        <v>6800</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <v>10501</v>
       </c>
@@ -8533,8 +8840,16 @@
       <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K47" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
         <v>10502</v>
       </c>
@@ -8562,8 +8877,16 @@
       <c r="J48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K48" s="3">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <v>10503</v>
       </c>
@@ -8591,8 +8914,16 @@
       <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K49" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <v>10504</v>
       </c>
@@ -8620,8 +8951,16 @@
       <c r="J50" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K50" s="3">
+        <f t="shared" si="0"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>10505</v>
       </c>
@@ -8649,8 +8988,16 @@
       <c r="J51" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K51" s="3">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <v>10506</v>
       </c>
@@ -8678,8 +9025,16 @@
       <c r="J52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K52" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L52" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="4">
         <v>10507</v>
       </c>
@@ -8707,8 +9062,16 @@
       <c r="J53" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K53" s="3">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" s="4">
         <v>10508</v>
       </c>
@@ -8736,8 +9099,16 @@
       <c r="J54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K54" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <v>10509</v>
       </c>
@@ -8765,8 +9136,16 @@
       <c r="J55" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K55" s="3">
+        <f t="shared" si="0"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <v>10510</v>
       </c>
@@ -8794,8 +9173,16 @@
       <c r="J56" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K56" s="3">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+      <c r="L56" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <v>10511</v>
       </c>
@@ -8823,8 +9210,16 @@
       <c r="J57" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K57" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L57" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <v>10512</v>
       </c>
@@ -8852,8 +9247,16 @@
       <c r="J58" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K58" s="3">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="L58" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <v>10513</v>
       </c>
@@ -8881,8 +9284,16 @@
       <c r="J59" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K59" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L59" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <v>10514</v>
       </c>
@@ -8910,8 +9321,16 @@
       <c r="J60" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K60" s="3">
+        <f t="shared" si="0"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L60" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <v>10515</v>
       </c>
@@ -8939,8 +9358,16 @@
       <c r="J61" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K61" s="3">
+        <f t="shared" si="0"/>
+        <v>6200</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <v>10516</v>
       </c>
@@ -8968,8 +9395,16 @@
       <c r="J62" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K62" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="8">
         <v>10483</v>
       </c>
@@ -8997,8 +9432,16 @@
       <c r="J63" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K63" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="8">
         <v>10484</v>
       </c>
@@ -9026,8 +9469,16 @@
       <c r="J64" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K64" s="3">
+        <f t="shared" si="0"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="8">
         <v>10485</v>
       </c>
@@ -9055,8 +9506,16 @@
       <c r="J65" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K65" s="3">
+        <f t="shared" si="0"/>
+        <v>6800</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>10520</v>
       </c>
@@ -9084,8 +9543,16 @@
       <c r="J66" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K66" s="3">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <v>10521</v>
       </c>
@@ -9113,8 +9580,16 @@
       <c r="J67" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K67" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
         <v>10522</v>
       </c>
@@ -9142,8 +9617,16 @@
       <c r="J68" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K68" s="3">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
         <v>10523</v>
       </c>
@@ -9171,8 +9654,16 @@
       <c r="J69" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K69" s="3">
+        <f t="shared" ref="K69:K132" si="2">E69*F69</f>
+        <v>2200</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" ref="L69:L132" si="3">MONTH(C69)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
         <v>10524</v>
       </c>
@@ -9200,8 +9691,16 @@
       <c r="J70" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K70" s="3">
+        <f t="shared" si="2"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <v>10525</v>
       </c>
@@ -9229,8 +9728,16 @@
       <c r="J71" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K71" s="3">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="L71" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <v>10526</v>
       </c>
@@ -9258,8 +9765,16 @@
       <c r="J72" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K72" s="3">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L72" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <v>10527</v>
       </c>
@@ -9287,8 +9802,16 @@
       <c r="J73" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K73" s="3">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="L73" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
         <v>10528</v>
       </c>
@@ -9316,8 +9839,16 @@
       <c r="J74" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K74" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L74" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
         <v>10529</v>
       </c>
@@ -9345,8 +9876,16 @@
       <c r="J75" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K75" s="3">
+        <f t="shared" si="2"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L75" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
         <v>10530</v>
       </c>
@@ -9374,8 +9913,16 @@
       <c r="J76" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K76" s="3">
+        <f t="shared" si="2"/>
+        <v>6200</v>
+      </c>
+      <c r="L76" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
         <v>10531</v>
       </c>
@@ -9403,8 +9950,16 @@
       <c r="J77" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K77" s="3">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L77" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
         <v>10532</v>
       </c>
@@ -9432,8 +9987,16 @@
       <c r="J78" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K78" s="3">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="L78" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="4">
         <v>10533</v>
       </c>
@@ -9461,8 +10024,16 @@
       <c r="J79" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K79" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L79" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B80" s="4">
         <v>10534</v>
       </c>
@@ -9490,8 +10061,16 @@
       <c r="J80" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K80" s="3">
+        <f t="shared" si="2"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L80" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
         <v>10535</v>
       </c>
@@ -9519,8 +10098,16 @@
       <c r="J81" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K81" s="3">
+        <f t="shared" si="2"/>
+        <v>6200</v>
+      </c>
+      <c r="L81" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B82" s="4">
         <v>10536</v>
       </c>
@@ -9548,8 +10135,16 @@
       <c r="J82" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K82" s="3">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L82" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B83" s="4">
         <v>10540</v>
       </c>
@@ -9577,8 +10172,16 @@
       <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K83" s="3">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="L83" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B84" s="4">
         <v>10541</v>
       </c>
@@ -9606,8 +10209,16 @@
       <c r="J84" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K84" s="3">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L84" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
         <v>10542</v>
       </c>
@@ -9635,8 +10246,16 @@
       <c r="J85" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K85" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L85" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B86" s="4">
         <v>10543</v>
       </c>
@@ -9664,8 +10283,16 @@
       <c r="J86" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K86" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L86" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B87" s="4">
         <v>10544</v>
       </c>
@@ -9693,8 +10320,16 @@
       <c r="J87" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K87" s="3">
+        <f t="shared" si="2"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L87" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
         <v>10545</v>
       </c>
@@ -9722,8 +10357,16 @@
       <c r="J88" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K88" s="3">
+        <f t="shared" si="2"/>
+        <v>5799.9999999999991</v>
+      </c>
+      <c r="L88" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
         <v>10546</v>
       </c>
@@ -9751,8 +10394,16 @@
       <c r="J89" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K89" s="3">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L89" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
         <v>10547</v>
       </c>
@@ -9780,8 +10431,16 @@
       <c r="J90" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K90" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L90" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B91" s="4">
         <v>10548</v>
       </c>
@@ -9809,8 +10468,16 @@
       <c r="J91" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K91" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L91" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B92" s="4">
         <v>10549</v>
       </c>
@@ -9838,8 +10505,16 @@
       <c r="J92" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K92" s="3">
+        <f t="shared" si="2"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L92" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
         <v>10550</v>
       </c>
@@ -9867,8 +10542,16 @@
       <c r="J93" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K93" s="3">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="L93" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
         <v>10551</v>
       </c>
@@ -9896,8 +10579,16 @@
       <c r="J94" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K94" s="3">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L94" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
         <v>10552</v>
       </c>
@@ -9925,8 +10616,16 @@
       <c r="J95" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K95" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L95" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B96" s="4">
         <v>10553</v>
       </c>
@@ -9954,8 +10653,16 @@
       <c r="J96" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K96" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L96" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
         <v>10554</v>
       </c>
@@ -9983,8 +10690,16 @@
       <c r="J97" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K97" s="3">
+        <f t="shared" si="2"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L97" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
         <v>10555</v>
       </c>
@@ -10012,8 +10727,16 @@
       <c r="J98" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K98" s="3">
+        <f t="shared" si="2"/>
+        <v>6200</v>
+      </c>
+      <c r="L98" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
         <v>10556</v>
       </c>
@@ -10041,8 +10764,16 @@
       <c r="J99" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K99" s="3">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L99" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B100" s="4">
         <v>10557</v>
       </c>
@@ -10070,8 +10801,16 @@
       <c r="J100" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K100" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L100" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B101" s="4">
         <v>10558</v>
       </c>
@@ -10099,8 +10838,16 @@
       <c r="J101" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K101" s="3">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="L101" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B102" s="4">
         <v>10559</v>
       </c>
@@ -10128,8 +10875,16 @@
       <c r="J102" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K102" s="3">
+        <f t="shared" si="2"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L102" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B103" s="4">
         <v>10560</v>
       </c>
@@ -10157,8 +10912,16 @@
       <c r="J103" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K103" s="3">
+        <f t="shared" si="2"/>
+        <v>6200</v>
+      </c>
+      <c r="L103" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B104" s="4">
         <v>10561</v>
       </c>
@@ -10186,8 +10949,16 @@
       <c r="J104" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K104" s="3">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L104" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B105" s="4">
         <v>10562</v>
       </c>
@@ -10215,8 +10986,16 @@
       <c r="J105" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K105" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L105" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B106" s="4">
         <v>10563</v>
       </c>
@@ -10244,8 +11023,16 @@
       <c r="J106" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K106" s="3">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="L106" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B107" s="4">
         <v>10564</v>
       </c>
@@ -10273,8 +11060,16 @@
       <c r="J107" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K107" s="3">
+        <f t="shared" si="2"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L107" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B108" s="4">
         <v>10565</v>
       </c>
@@ -10302,8 +11097,16 @@
       <c r="J108" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K108" s="3">
+        <f t="shared" si="2"/>
+        <v>6400</v>
+      </c>
+      <c r="L108" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B109" s="4">
         <v>10566</v>
       </c>
@@ -10331,8 +11134,16 @@
       <c r="J109" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K109" s="3">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L109" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B110" s="4">
         <v>10567</v>
       </c>
@@ -10360,8 +11171,16 @@
       <c r="J110" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K110" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L110" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B111" s="4">
         <v>10568</v>
       </c>
@@ -10389,8 +11208,16 @@
       <c r="J111" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K111" s="3">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="L111" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B112" s="4">
         <v>10569</v>
       </c>
@@ -10418,8 +11245,16 @@
       <c r="J112" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K112" s="3">
+        <f t="shared" si="2"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L112" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B113" s="4">
         <v>10570</v>
       </c>
@@ -10447,8 +11282,16 @@
       <c r="J113" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K113" s="3">
+        <f t="shared" si="2"/>
+        <v>6400</v>
+      </c>
+      <c r="L113" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B114" s="4">
         <v>10571</v>
       </c>
@@ -10476,8 +11319,16 @@
       <c r="J114" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K114" s="3">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L114" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B115" s="4">
         <v>10572</v>
       </c>
@@ -10505,8 +11356,16 @@
       <c r="J115" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K115" s="3">
+        <f t="shared" si="2"/>
+        <v>1999.9999999999998</v>
+      </c>
+      <c r="L115" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B116" s="4">
         <v>10573</v>
       </c>
@@ -10534,8 +11393,16 @@
       <c r="J116" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K116" s="3">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="L116" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B117" s="4">
         <v>10574</v>
       </c>
@@ -10563,8 +11430,16 @@
       <c r="J117" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K117" s="3">
+        <f t="shared" si="2"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L117" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B118" s="4">
         <v>10575</v>
       </c>
@@ -10592,8 +11467,16 @@
       <c r="J118" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K118" s="3">
+        <f t="shared" si="2"/>
+        <v>6800</v>
+      </c>
+      <c r="L118" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
         <v>10576</v>
       </c>
@@ -10621,8 +11504,16 @@
       <c r="J119" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K119" s="3">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L119" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B120" s="4">
         <v>10577</v>
       </c>
@@ -10650,8 +11541,16 @@
       <c r="J120" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K120" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L120" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B121" s="4">
         <v>10578</v>
       </c>
@@ -10679,8 +11578,16 @@
       <c r="J121" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K121" s="3">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="L121" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
         <v>10579</v>
       </c>
@@ -10708,8 +11615,16 @@
       <c r="J122" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K122" s="3">
+        <f t="shared" si="2"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L122" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B123" s="4">
         <v>10580</v>
       </c>
@@ -10737,8 +11652,16 @@
       <c r="J123" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K123" s="3">
+        <f t="shared" si="2"/>
+        <v>6800</v>
+      </c>
+      <c r="L123" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
         <v>10581</v>
       </c>
@@ -10766,8 +11689,16 @@
       <c r="J124" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K124" s="3">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L124" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
         <v>10582</v>
       </c>
@@ -10795,8 +11726,16 @@
       <c r="J125" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K125" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L125" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
         <v>10583</v>
       </c>
@@ -10824,8 +11763,16 @@
       <c r="J126" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K126" s="3">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="L126" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B127" s="4">
         <v>10584</v>
       </c>
@@ -10853,8 +11800,16 @@
       <c r="J127" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K127" s="3">
+        <f t="shared" si="2"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L127" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B128" s="4">
         <v>10585</v>
       </c>
@@ -10882,8 +11837,16 @@
       <c r="J128" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K128" s="3">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="L128" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B129" s="4">
         <v>10586</v>
       </c>
@@ -10911,8 +11874,16 @@
       <c r="J129" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K129" s="3">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L129" s="3">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B130" s="4">
         <v>10537</v>
       </c>
@@ -10940,8 +11911,16 @@
       <c r="J130" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K130" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L130" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B131" s="4">
         <v>10538</v>
       </c>
@@ -10969,8 +11948,16 @@
       <c r="J131" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K131" s="3">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="L131" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B132" s="4">
         <v>10539</v>
       </c>
@@ -10998,8 +11985,16 @@
       <c r="J132" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K132" s="3">
+        <f t="shared" si="2"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L132" s="3">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B133" s="4">
         <v>10590</v>
       </c>
@@ -11027,8 +12022,16 @@
       <c r="J133" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K133" s="3">
+        <f t="shared" ref="K133:K196" si="4">E133*F133</f>
+        <v>7200</v>
+      </c>
+      <c r="L133" s="3">
+        <f t="shared" ref="L133:L196" si="5">MONTH(C133)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B134" s="4">
         <v>10591</v>
       </c>
@@ -11056,8 +12059,16 @@
       <c r="J134" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K134" s="3">
+        <f t="shared" si="4"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L134" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B135" s="4">
         <v>10592</v>
       </c>
@@ -11085,8 +12096,16 @@
       <c r="J135" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K135" s="3">
+        <f t="shared" si="4"/>
+        <v>1999.9999999999998</v>
+      </c>
+      <c r="L135" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B136" s="4">
         <v>10593</v>
       </c>
@@ -11114,8 +12133,16 @@
       <c r="J136" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K136" s="3">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="L136" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B137" s="4">
         <v>10594</v>
       </c>
@@ -11143,8 +12170,16 @@
       <c r="J137" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K137" s="3">
+        <f t="shared" si="4"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L137" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B138" s="4">
         <v>10595</v>
       </c>
@@ -11172,8 +12207,16 @@
       <c r="J138" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K138" s="3">
+        <f t="shared" si="4"/>
+        <v>7000</v>
+      </c>
+      <c r="L138" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B139" s="4">
         <v>10596</v>
       </c>
@@ -11201,8 +12244,16 @@
       <c r="J139" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K139" s="3">
+        <f t="shared" si="4"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L139" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B140" s="4">
         <v>10597</v>
       </c>
@@ -11230,8 +12281,16 @@
       <c r="J140" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K140" s="3">
+        <f t="shared" si="4"/>
+        <v>1999.9999999999998</v>
+      </c>
+      <c r="L140" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B141" s="4">
         <v>10598</v>
       </c>
@@ -11259,8 +12318,16 @@
       <c r="J141" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K141" s="3">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="L141" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B142" s="4">
         <v>10599</v>
       </c>
@@ -11288,8 +12355,16 @@
       <c r="J142" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K142" s="3">
+        <f t="shared" si="4"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L142" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B143" s="4">
         <v>10600</v>
       </c>
@@ -11317,8 +12392,16 @@
       <c r="J143" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K143" s="3">
+        <f t="shared" si="4"/>
+        <v>6800</v>
+      </c>
+      <c r="L143" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B144" s="4">
         <v>10601</v>
       </c>
@@ -11346,8 +12429,16 @@
       <c r="J144" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K144" s="3">
+        <f t="shared" si="4"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L144" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B145" s="4">
         <v>10602</v>
       </c>
@@ -11375,8 +12466,16 @@
       <c r="J145" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K145" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L145" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B146" s="4">
         <v>10603</v>
       </c>
@@ -11404,8 +12503,16 @@
       <c r="J146" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K146" s="3">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="L146" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B147" s="4">
         <v>10604</v>
       </c>
@@ -11433,8 +12540,16 @@
       <c r="J147" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K147" s="3">
+        <f t="shared" si="4"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L147" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B148" s="4">
         <v>10605</v>
       </c>
@@ -11462,8 +12577,16 @@
       <c r="J148" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K148" s="3">
+        <f t="shared" si="4"/>
+        <v>7000</v>
+      </c>
+      <c r="L148" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B149" s="4">
         <v>10606</v>
       </c>
@@ -11491,8 +12614,16 @@
       <c r="J149" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K149" s="3">
+        <f t="shared" si="4"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L149" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
         <v>10607</v>
       </c>
@@ -11520,8 +12651,16 @@
       <c r="J150" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K150" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L150" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
         <v>10608</v>
       </c>
@@ -11549,8 +12688,16 @@
       <c r="J151" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K151" s="3">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="L151" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B152" s="4">
         <v>10609</v>
       </c>
@@ -11578,8 +12725,16 @@
       <c r="J152" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K152" s="3">
+        <f t="shared" si="4"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L152" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B153" s="4">
         <v>10610</v>
       </c>
@@ -11607,8 +12762,16 @@
       <c r="J153" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K153" s="3">
+        <f t="shared" si="4"/>
+        <v>7400</v>
+      </c>
+      <c r="L153" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B154" s="4">
         <v>10611</v>
       </c>
@@ -11636,8 +12799,16 @@
       <c r="J154" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K154" s="3">
+        <f t="shared" si="4"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L154" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B155" s="4">
         <v>10612</v>
       </c>
@@ -11665,8 +12836,16 @@
       <c r="J155" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K155" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L155" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B156" s="4">
         <v>10613</v>
       </c>
@@ -11694,8 +12873,16 @@
       <c r="J156" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K156" s="3">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="L156" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B157" s="4">
         <v>10614</v>
       </c>
@@ -11723,8 +12910,16 @@
       <c r="J157" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K157" s="3">
+        <f t="shared" si="4"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L157" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B158" s="4">
         <v>10615</v>
       </c>
@@ -11752,8 +12947,16 @@
       <c r="J158" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K158" s="3">
+        <f t="shared" si="4"/>
+        <v>7400</v>
+      </c>
+      <c r="L158" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B159" s="4">
         <v>10616</v>
       </c>
@@ -11781,8 +12984,16 @@
       <c r="J159" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K159" s="3">
+        <f t="shared" si="4"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L159" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B160" s="4">
         <v>10617</v>
       </c>
@@ -11810,8 +13021,16 @@
       <c r="J160" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K160" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L160" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B161" s="4">
         <v>10618</v>
       </c>
@@ -11839,8 +13058,16 @@
       <c r="J161" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K161" s="3">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="L161" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B162" s="4">
         <v>10619</v>
       </c>
@@ -11868,8 +13095,16 @@
       <c r="J162" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K162" s="3">
+        <f t="shared" si="4"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L162" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B163" s="4">
         <v>10620</v>
       </c>
@@ -11897,8 +13132,16 @@
       <c r="J163" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K163" s="3">
+        <f t="shared" si="4"/>
+        <v>7600</v>
+      </c>
+      <c r="L163" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B164" s="4">
         <v>10621</v>
       </c>
@@ -11926,8 +13169,16 @@
       <c r="J164" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K164" s="3">
+        <f t="shared" si="4"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L164" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B165" s="4">
         <v>10622</v>
       </c>
@@ -11955,8 +13206,16 @@
       <c r="J165" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K165" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L165" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B166" s="4">
         <v>10623</v>
       </c>
@@ -11984,8 +13243,16 @@
       <c r="J166" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K166" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L166" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B167" s="4">
         <v>10624</v>
       </c>
@@ -12013,8 +13280,16 @@
       <c r="J167" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K167" s="3">
+        <f t="shared" si="4"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L167" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B168" s="4">
         <v>10625</v>
       </c>
@@ -12042,8 +13317,16 @@
       <c r="J168" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K168" s="3">
+        <f t="shared" si="4"/>
+        <v>7400</v>
+      </c>
+      <c r="L168" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B169" s="4">
         <v>10626</v>
       </c>
@@ -12071,8 +13354,16 @@
       <c r="J169" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K169" s="3">
+        <f t="shared" si="4"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L169" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B170" s="4">
         <v>10627</v>
       </c>
@@ -12100,8 +13391,16 @@
       <c r="J170" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K170" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L170" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B171" s="4">
         <v>10628</v>
       </c>
@@ -12129,8 +13428,16 @@
       <c r="J171" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K171" s="3">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="L171" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B172" s="4">
         <v>10629</v>
       </c>
@@ -12158,8 +13465,16 @@
       <c r="J172" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K172" s="3">
+        <f t="shared" si="4"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L172" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B173" s="4">
         <v>10630</v>
       </c>
@@ -12187,8 +13502,16 @@
       <c r="J173" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K173" s="3">
+        <f t="shared" si="4"/>
+        <v>7400</v>
+      </c>
+      <c r="L173" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B174" s="4">
         <v>10631</v>
       </c>
@@ -12216,8 +13539,16 @@
       <c r="J174" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K174" s="3">
+        <f t="shared" si="4"/>
+        <v>2000.0000000000002</v>
+      </c>
+      <c r="L174" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B175" s="4">
         <v>10632</v>
       </c>
@@ -12245,8 +13576,16 @@
       <c r="J175" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K175" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L175" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B176" s="4">
         <v>10633</v>
       </c>
@@ -12274,8 +13613,16 @@
       <c r="J176" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K176" s="3">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="L176" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B177" s="4">
         <v>10634</v>
       </c>
@@ -12303,8 +13650,16 @@
       <c r="J177" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K177" s="3">
+        <f t="shared" si="4"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L177" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B178" s="4">
         <v>10635</v>
       </c>
@@ -12332,8 +13687,16 @@
       <c r="J178" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K178" s="3">
+        <f t="shared" si="4"/>
+        <v>7200</v>
+      </c>
+      <c r="L178" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B179" s="4">
         <v>10636</v>
       </c>
@@ -12361,8 +13724,16 @@
       <c r="J179" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K179" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L179" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B180" s="4">
         <v>10637</v>
       </c>
@@ -12390,8 +13761,16 @@
       <c r="J180" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K180" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L180" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B181" s="4">
         <v>10638</v>
       </c>
@@ -12419,8 +13798,16 @@
       <c r="J181" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K181" s="3">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="L181" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B182" s="4">
         <v>10639</v>
       </c>
@@ -12448,8 +13835,16 @@
       <c r="J182" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K182" s="3">
+        <f t="shared" si="4"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L182" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B183" s="4">
         <v>10640</v>
       </c>
@@ -12477,8 +13872,16 @@
       <c r="J183" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K183" s="3">
+        <f t="shared" si="4"/>
+        <v>7000</v>
+      </c>
+      <c r="L183" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B184" s="4">
         <v>10641</v>
       </c>
@@ -12506,8 +13909,16 @@
       <c r="J184" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K184" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L184" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B185" s="4">
         <v>10642</v>
       </c>
@@ -12535,8 +13946,16 @@
       <c r="J185" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K185" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L185" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B186" s="4">
         <v>10643</v>
       </c>
@@ -12564,8 +13983,16 @@
       <c r="J186" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K186" s="3">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="L186" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B187" s="4">
         <v>10644</v>
       </c>
@@ -12593,8 +14020,16 @@
       <c r="J187" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K187" s="3">
+        <f t="shared" si="4"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L187" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B188" s="4">
         <v>10645</v>
       </c>
@@ -12622,8 +14057,16 @@
       <c r="J188" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K188" s="3">
+        <f t="shared" si="4"/>
+        <v>7400</v>
+      </c>
+      <c r="L188" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B189" s="4">
         <v>10646</v>
       </c>
@@ -12651,8 +14094,16 @@
       <c r="J189" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K189" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L189" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B190" s="4">
         <v>10647</v>
       </c>
@@ -12680,8 +14131,16 @@
       <c r="J190" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K190" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L190" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B191" s="4">
         <v>10648</v>
       </c>
@@ -12709,8 +14168,16 @@
       <c r="J191" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K191" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L191" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B192" s="4">
         <v>10649</v>
       </c>
@@ -12738,8 +14205,16 @@
       <c r="J192" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K192" s="3">
+        <f t="shared" si="4"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L192" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B193" s="4">
         <v>10650</v>
       </c>
@@ -12767,8 +14242,16 @@
       <c r="J193" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K193" s="3">
+        <f t="shared" si="4"/>
+        <v>7600</v>
+      </c>
+      <c r="L193" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B194" s="4">
         <v>10651</v>
       </c>
@@ -12796,8 +14279,16 @@
       <c r="J194" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K194" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L194" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B195" s="4">
         <v>10652</v>
       </c>
@@ -12825,8 +14316,16 @@
       <c r="J195" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K195" s="3">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+      <c r="L195" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B196" s="4">
         <v>10653</v>
       </c>
@@ -12854,8 +14353,16 @@
       <c r="J196" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K196" s="3">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L196" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B197" s="4">
         <v>10654</v>
       </c>
@@ -12883,8 +14390,16 @@
       <c r="J197" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K197" s="3">
+        <f t="shared" ref="K197:K256" si="6">E197*F197</f>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L197" s="3">
+        <f t="shared" ref="L197:L256" si="7">MONTH(C197)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B198" s="4">
         <v>10655</v>
       </c>
@@ -12912,8 +14427,16 @@
       <c r="J198" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K198" s="3">
+        <f t="shared" si="6"/>
+        <v>7800</v>
+      </c>
+      <c r="L198" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B199" s="4">
         <v>10656</v>
       </c>
@@ -12941,8 +14464,16 @@
       <c r="J199" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K199" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L199" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B200" s="4">
         <v>10657</v>
       </c>
@@ -12970,8 +14501,16 @@
       <c r="J200" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K200" s="3">
+        <f t="shared" si="6"/>
+        <v>2400</v>
+      </c>
+      <c r="L200" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B201" s="4">
         <v>10658</v>
       </c>
@@ -12999,8 +14538,16 @@
       <c r="J201" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K201" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L201" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B202" s="4">
         <v>10659</v>
       </c>
@@ -13028,8 +14575,16 @@
       <c r="J202" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K202" s="3">
+        <f t="shared" si="6"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L202" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B203" s="4">
         <v>10660</v>
       </c>
@@ -13057,8 +14612,16 @@
       <c r="J203" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K203" s="3">
+        <f t="shared" si="6"/>
+        <v>8200</v>
+      </c>
+      <c r="L203" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B204" s="4">
         <v>10661</v>
       </c>
@@ -13086,8 +14649,16 @@
       <c r="J204" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K204" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L204" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B205" s="4">
         <v>10662</v>
       </c>
@@ -13115,8 +14686,16 @@
       <c r="J205" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K205" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L205" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B206" s="4">
         <v>10663</v>
       </c>
@@ -13144,8 +14723,16 @@
       <c r="J206" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K206" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L206" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B207" s="4">
         <v>10664</v>
       </c>
@@ -13173,8 +14760,16 @@
       <c r="J207" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K207" s="3">
+        <f t="shared" si="6"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L207" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B208" s="4">
         <v>10665</v>
       </c>
@@ -13202,8 +14797,16 @@
       <c r="J208" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K208" s="3">
+        <f t="shared" si="6"/>
+        <v>8400</v>
+      </c>
+      <c r="L208" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B209" s="4">
         <v>10666</v>
       </c>
@@ -13231,8 +14834,16 @@
       <c r="J209" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K209" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L209" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B210" s="4">
         <v>10667</v>
       </c>
@@ -13260,8 +14871,16 @@
       <c r="J210" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K210" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L210" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B211" s="4">
         <v>10668</v>
       </c>
@@ -13289,8 +14908,16 @@
       <c r="J211" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K211" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L211" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B212" s="4">
         <v>10669</v>
       </c>
@@ -13318,8 +14945,16 @@
       <c r="J212" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K212" s="3">
+        <f t="shared" si="6"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L212" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B213" s="4">
         <v>10670</v>
       </c>
@@ -13347,8 +14982,16 @@
       <c r="J213" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K213" s="3">
+        <f t="shared" si="6"/>
+        <v>8800</v>
+      </c>
+      <c r="L213" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B214" s="4">
         <v>10671</v>
       </c>
@@ -13376,8 +15019,16 @@
       <c r="J214" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K214" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L214" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B215" s="4">
         <v>10672</v>
       </c>
@@ -13405,8 +15056,16 @@
       <c r="J215" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K215" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L215" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B216" s="4">
         <v>10673</v>
       </c>
@@ -13434,8 +15093,16 @@
       <c r="J216" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K216" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L216" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B217" s="4">
         <v>10674</v>
       </c>
@@ -13463,8 +15130,16 @@
       <c r="J217" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K217" s="3">
+        <f t="shared" si="6"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L217" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B218" s="4">
         <v>10675</v>
       </c>
@@ -13492,8 +15167,16 @@
       <c r="J218" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K218" s="3">
+        <f t="shared" si="6"/>
+        <v>8800</v>
+      </c>
+      <c r="L218" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B219" s="4">
         <v>10676</v>
       </c>
@@ -13521,8 +15204,16 @@
       <c r="J219" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K219" s="3">
+        <f t="shared" si="6"/>
+        <v>2400</v>
+      </c>
+      <c r="L219" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B220" s="4">
         <v>10677</v>
       </c>
@@ -13550,8 +15241,16 @@
       <c r="J220" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K220" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L220" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B221" s="4">
         <v>10678</v>
       </c>
@@ -13579,8 +15278,16 @@
       <c r="J221" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K221" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L221" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B222" s="4">
         <v>10679</v>
       </c>
@@ -13608,8 +15315,16 @@
       <c r="J222" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K222" s="3">
+        <f t="shared" si="6"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L222" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B223" s="4">
         <v>10680</v>
       </c>
@@ -13637,8 +15352,16 @@
       <c r="J223" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K223" s="3">
+        <f t="shared" si="6"/>
+        <v>8400</v>
+      </c>
+      <c r="L223" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B224" s="4">
         <v>10681</v>
       </c>
@@ -13666,8 +15389,16 @@
       <c r="J224" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K224" s="3">
+        <f t="shared" si="6"/>
+        <v>2400</v>
+      </c>
+      <c r="L224" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B225" s="4">
         <v>10682</v>
       </c>
@@ -13695,8 +15426,16 @@
       <c r="J225" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K225" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L225" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B226" s="4">
         <v>10683</v>
       </c>
@@ -13724,8 +15463,16 @@
       <c r="J226" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K226" s="3">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="L226" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B227" s="4">
         <v>10684</v>
       </c>
@@ -13753,8 +15500,16 @@
       <c r="J227" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K227" s="3">
+        <f t="shared" si="6"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L227" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B228" s="4">
         <v>10685</v>
       </c>
@@ -13782,8 +15537,16 @@
       <c r="J228" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K228" s="3">
+        <f t="shared" si="6"/>
+        <v>8800</v>
+      </c>
+      <c r="L228" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B229" s="4">
         <v>10686</v>
       </c>
@@ -13811,8 +15574,16 @@
       <c r="J229" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K229" s="3">
+        <f t="shared" si="6"/>
+        <v>2400</v>
+      </c>
+      <c r="L229" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B230" s="4">
         <v>10687</v>
       </c>
@@ -13840,8 +15611,16 @@
       <c r="J230" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K230" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L230" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B231" s="4">
         <v>10688</v>
       </c>
@@ -13869,8 +15648,16 @@
       <c r="J231" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K231" s="3">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="L231" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B232" s="4">
         <v>10689</v>
       </c>
@@ -13898,8 +15685,16 @@
       <c r="J232" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K232" s="3">
+        <f t="shared" si="6"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L232" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B233" s="4">
         <v>10690</v>
       </c>
@@ -13927,8 +15722,16 @@
       <c r="J233" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K233" s="3">
+        <f t="shared" si="6"/>
+        <v>8800</v>
+      </c>
+      <c r="L233" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B234" s="4">
         <v>10691</v>
       </c>
@@ -13956,8 +15759,16 @@
       <c r="J234" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K234" s="3">
+        <f t="shared" si="6"/>
+        <v>2600</v>
+      </c>
+      <c r="L234" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B235" s="4">
         <v>10692</v>
       </c>
@@ -13985,8 +15796,16 @@
       <c r="J235" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K235" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L235" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B236" s="4">
         <v>10693</v>
       </c>
@@ -14014,8 +15833,16 @@
       <c r="J236" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K236" s="3">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="L236" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B237" s="4">
         <v>10694</v>
       </c>
@@ -14043,8 +15870,16 @@
       <c r="J237" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K237" s="3">
+        <f t="shared" si="6"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L237" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B238" s="4">
         <v>10695</v>
       </c>
@@ -14072,8 +15907,16 @@
       <c r="J238" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K238" s="3">
+        <f t="shared" si="6"/>
+        <v>9000</v>
+      </c>
+      <c r="L238" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B239" s="4">
         <v>10696</v>
       </c>
@@ -14101,8 +15944,16 @@
       <c r="J239" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K239" s="3">
+        <f t="shared" si="6"/>
+        <v>2800</v>
+      </c>
+      <c r="L239" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B240" s="4">
         <v>10697</v>
       </c>
@@ -14130,8 +15981,16 @@
       <c r="J240" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K240" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L240" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B241" s="4">
         <v>10698</v>
       </c>
@@ -14159,8 +16018,16 @@
       <c r="J241" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K241" s="3">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="L241" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B242" s="4">
         <v>10699</v>
       </c>
@@ -14188,8 +16055,16 @@
       <c r="J242" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K242" s="3">
+        <f t="shared" si="6"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L242" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B243" s="4">
         <v>10700</v>
       </c>
@@ -14217,8 +16092,16 @@
       <c r="J243" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K243" s="3">
+        <f t="shared" si="6"/>
+        <v>9000</v>
+      </c>
+      <c r="L243" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B244" s="4">
         <v>10701</v>
       </c>
@@ -14246,8 +16129,16 @@
       <c r="J244" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K244" s="3">
+        <f t="shared" si="6"/>
+        <v>2800</v>
+      </c>
+      <c r="L244" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B245" s="4">
         <v>10702</v>
       </c>
@@ -14275,8 +16166,16 @@
       <c r="J245" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K245" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L245" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B246" s="4">
         <v>10703</v>
       </c>
@@ -14304,8 +16203,16 @@
       <c r="J246" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K246" s="3">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="L246" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B247" s="4">
         <v>10704</v>
       </c>
@@ -14333,8 +16240,16 @@
       <c r="J247" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K247" s="3">
+        <f t="shared" si="6"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L247" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B248" s="4">
         <v>10705</v>
       </c>
@@ -14362,8 +16277,16 @@
       <c r="J248" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K248" s="3">
+        <f t="shared" si="6"/>
+        <v>9400</v>
+      </c>
+      <c r="L248" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B249" s="4">
         <v>10706</v>
       </c>
@@ -14391,8 +16314,16 @@
       <c r="J249" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K249" s="3">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="L249" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B250" s="4">
         <v>10707</v>
       </c>
@@ -14420,8 +16351,16 @@
       <c r="J250" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K250" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L250" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B251" s="4">
         <v>10708</v>
       </c>
@@ -14449,8 +16388,16 @@
       <c r="J251" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K251" s="3">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="L251" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B252" s="4">
         <v>10709</v>
       </c>
@@ -14478,8 +16425,16 @@
       <c r="J252" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K252" s="3">
+        <f t="shared" si="6"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="L252" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B253" s="4">
         <v>10710</v>
       </c>
@@ -14507,8 +16462,16 @@
       <c r="J253" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K253" s="3">
+        <f t="shared" si="6"/>
+        <v>9800</v>
+      </c>
+      <c r="L253" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B254" s="4">
         <v>10711</v>
       </c>
@@ -14536,8 +16499,16 @@
       <c r="J254" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="255" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K254" s="3">
+        <f t="shared" si="6"/>
+        <v>2800</v>
+      </c>
+      <c r="L254" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B255" s="4">
         <v>10712</v>
       </c>
@@ -14565,8 +16536,16 @@
       <c r="J255" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="256" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K255" s="3">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="L255" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B256" s="4">
         <v>10713</v>
       </c>
@@ -14593,6 +16572,14 @@
       </c>
       <c r="J256" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="K256" s="3">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="L256" s="3">
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -14600,5 +16587,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>